--- a/倒立摆Simulink模型/fangzhen/aoe-daolibai-position.xlsx
+++ b/倒立摆Simulink模型/fangzhen/aoe-daolibai-position.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All_Project\SGOOL\Pend-Modbus\倒立摆Simulink模型\fangzhen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6305A72-666A-4B36-949A-F954DE219E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193C2C8F-1DD5-4AB2-B9B9-7CEB0B5D04E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1656" yWindow="1056" windowWidth="14616" windowHeight="11208"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="18576" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aoe-daolibai-position" sheetId="1" r:id="rId1"/>
@@ -46,191 +46,192 @@
     <t>Event_Drive</t>
   </si>
   <si>
+    <t>变量定义</t>
+  </si>
+  <si>
+    <t>节点ID</t>
+  </si>
+  <si>
+    <t>节点类型</t>
+  </si>
+  <si>
+    <t>超时时间(ms)</t>
+  </si>
+  <si>
+    <t>表达式</t>
+  </si>
+  <si>
+    <t>simulink通信事件</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>DoCal_POINT &gt; 0.5</t>
+  </si>
+  <si>
+    <t>角度环计算1</t>
+  </si>
+  <si>
+    <t>角度环计算2</t>
+  </si>
+  <si>
+    <t>判断countPosition</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>CountPosition&gt;4.5</t>
+  </si>
+  <si>
+    <t>位置环计算1</t>
+  </si>
+  <si>
+    <t>位置环计算2</t>
+  </si>
+  <si>
+    <t>两环计算完毕</t>
+  </si>
+  <si>
+    <t>两环综合</t>
+  </si>
+  <si>
+    <t>结束节点</t>
+  </si>
+  <si>
+    <t>DoCal_POINT == 0</t>
+  </si>
+  <si>
+    <t>首尾节点</t>
+  </si>
+  <si>
+    <t>动作名称</t>
+  </si>
+  <si>
+    <t>失败模式</t>
+  </si>
+  <si>
+    <t>动作类型</t>
+  </si>
+  <si>
+    <t>动作参数</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>开始PID计算，角度环微分</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Set_Points</t>
+  </si>
+  <si>
+    <t>DoCal_POINT:0;</t>
+  </si>
+  <si>
+    <t>D_AngleBias=AngleBias-LastAngleBias;</t>
+  </si>
+  <si>
+    <t>2;3</t>
+  </si>
+  <si>
+    <t>角度环PD</t>
+  </si>
+  <si>
+    <t>PWM_Angle=-Angle_KP*AngleBias-D_AngleBias*Angle_KD;</t>
+  </si>
+  <si>
+    <t>3;7</t>
+  </si>
+  <si>
+    <t>记录Last角度</t>
+  </si>
+  <si>
+    <t>LastAngleBias=AngleBias;</t>
+  </si>
+  <si>
+    <t>1;4</t>
+  </si>
+  <si>
+    <t>CountPosition++</t>
+  </si>
+  <si>
+    <t>CountPosition=CountPosition+1;</t>
+  </si>
+  <si>
+    <t>4;5</t>
+  </si>
+  <si>
+    <t>位置环一阶低通滤波器</t>
+  </si>
+  <si>
+    <t>CountPosition:0;</t>
+  </si>
+  <si>
+    <t>PositionBias=0.2*Measure_PositionBias+0.8*PositionBias;</t>
+  </si>
+  <si>
+    <t>5;6</t>
+  </si>
+  <si>
+    <t>位置环微分</t>
+  </si>
+  <si>
+    <t>D_PositionBias=PositionBias-LastPositionBias;</t>
+  </si>
+  <si>
+    <t>6;7</t>
+  </si>
+  <si>
+    <t>位置环PD;记录Last位置</t>
+  </si>
+  <si>
+    <t>PWM_Position=PositionBias*Position_KP+D_PositionBias*Position_KD;
+LastPositionBias=PositionBias;</t>
+  </si>
+  <si>
+    <t>4;7</t>
+  </si>
+  <si>
+    <t>延续上一次的位置环结果</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>7;8</t>
+  </si>
+  <si>
+    <t>PWM相加</t>
+  </si>
+  <si>
+    <t>ctrlout=PWM_Angle+PWM_Position;</t>
+  </si>
+  <si>
+    <t>8;9</t>
+  </si>
+  <si>
+    <t>限幅输出</t>
+  </si>
+  <si>
+    <t>PWMout=(ctrlout &lt;= uplim &amp;&amp; ctrlout &gt;= downlim) * ctrlout + (ctrlout &gt; uplim) * uplim + (ctrlout &lt; downlim) * downlim;</t>
+  </si>
+  <si>
     <t>D_AngleBias:0;LastAngleBias:0;PWM_Angle:0;
 PositionBias:0;D_PositionBias:0;LastPositionBias:0;PWM_Position:0;
 ctrlout:0;uplim:10000;downlim:-10000;CountPosition:0;
-Angle_KD:2;Angle_KP:1;Position_KP:0;Position_KD:0;</t>
-  </si>
-  <si>
-    <t>变量定义</t>
-  </si>
-  <si>
-    <t>节点ID</t>
-  </si>
-  <si>
-    <t>节点类型</t>
-  </si>
-  <si>
-    <t>超时时间(ms)</t>
-  </si>
-  <si>
-    <t>表达式</t>
-  </si>
-  <si>
-    <t>simulink通信事件</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>DoCal_POINT &gt; 0.5</t>
-  </si>
-  <si>
-    <t>角度环计算1</t>
-  </si>
-  <si>
-    <t>角度环计算2</t>
-  </si>
-  <si>
-    <t>判断countPosition</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>CountPosition&gt;4.5</t>
-  </si>
-  <si>
-    <t>位置环计算1</t>
-  </si>
-  <si>
-    <t>位置环计算2</t>
-  </si>
-  <si>
-    <t>两环计算完毕</t>
-  </si>
-  <si>
-    <t>两环综合</t>
-  </si>
-  <si>
-    <t>结束节点</t>
-  </si>
-  <si>
-    <t>DoCal_POINT == 0</t>
-  </si>
-  <si>
-    <t>首尾节点</t>
-  </si>
-  <si>
-    <t>动作名称</t>
-  </si>
-  <si>
-    <t>失败模式</t>
-  </si>
-  <si>
-    <t>动作类型</t>
-  </si>
-  <si>
-    <t>动作参数</t>
-  </si>
-  <si>
-    <t>1;2</t>
-  </si>
-  <si>
-    <t>开始PID计算，角度环微分</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Set_Points</t>
-  </si>
-  <si>
-    <t>DoCal_POINT:0;</t>
-  </si>
-  <si>
-    <t>D_AngleBias=AngleBias-LastAngleBias;</t>
-  </si>
-  <si>
-    <t>2;3</t>
-  </si>
-  <si>
-    <t>角度环PD</t>
-  </si>
-  <si>
-    <t>PWM_Angle=-Angle_KP*AngleBias-D_AngleBias*Angle_KD;</t>
-  </si>
-  <si>
-    <t>3;7</t>
-  </si>
-  <si>
-    <t>记录Last角度</t>
-  </si>
-  <si>
-    <t>LastAngleBias=AngleBias;</t>
-  </si>
-  <si>
-    <t>1;4</t>
-  </si>
-  <si>
-    <t>CountPosition++</t>
-  </si>
-  <si>
-    <t>CountPosition=CountPosition+1;</t>
-  </si>
-  <si>
-    <t>4;5</t>
-  </si>
-  <si>
-    <t>位置环一阶低通滤波器</t>
-  </si>
-  <si>
-    <t>CountPosition:0;</t>
-  </si>
-  <si>
-    <t>PositionBias=0.2*Measure_PositionBias+0.8*PositionBias;</t>
-  </si>
-  <si>
-    <t>5;6</t>
-  </si>
-  <si>
-    <t>位置环微分</t>
-  </si>
-  <si>
-    <t>D_PositionBias=PositionBias-LastPositionBias;</t>
-  </si>
-  <si>
-    <t>6;7</t>
-  </si>
-  <si>
-    <t>位置环PD;记录Last位置</t>
-  </si>
-  <si>
-    <t>PWM_Position=PositionBias*Position_KP+D_PositionBias*Position_KD;
-LastPositionBias=PositionBias;</t>
-  </si>
-  <si>
-    <t>4;7</t>
-  </si>
-  <si>
-    <t>延续上一次的位置环结果</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>7;8</t>
-  </si>
-  <si>
-    <t>PWM相加</t>
-  </si>
-  <si>
-    <t>ctrlout=PWM_Angle+PWM_Position;</t>
-  </si>
-  <si>
-    <t>8;9</t>
-  </si>
-  <si>
-    <t>限幅输出</t>
-  </si>
-  <si>
-    <t>PWMout=(ctrlout &lt;= uplim &amp;&amp; ctrlout &gt;= downlim) * ctrlout + (ctrlout &gt; uplim) * uplim + (ctrlout &lt; downlim) * downlim;</t>
+Angle_KP:400;Angle_KD:400;Position_KP:20;Position_KD:300;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1178,10 +1179,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1205,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="358.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="372.6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>300</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1227,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,16 +1261,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1278,10 +1281,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1298,10 +1301,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1318,16 +1321,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1338,10 +1341,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1358,10 +1361,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -1378,10 +1381,10 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1398,10 +1401,10 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1418,16 +1421,16 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1435,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1455,22 +1458,22 @@
         <v>300</v>
       </c>
       <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>36</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1478,19 +1481,19 @@
         <v>300</v>
       </c>
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
         <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1498,19 +1501,19 @@
         <v>300</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
         <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1518,19 +1521,19 @@
         <v>300</v>
       </c>
       <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
         <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1538,22 +1541,22 @@
         <v>300</v>
       </c>
       <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>50</v>
-      </c>
-      <c r="G23" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1561,19 +1564,19 @@
         <v>300</v>
       </c>
       <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
         <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="165.6" x14ac:dyDescent="0.25">
@@ -1581,19 +1584,19 @@
         <v>300</v>
       </c>
       <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1601,16 +1604,16 @@
         <v>300</v>
       </c>
       <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
         <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1618,19 +1621,19 @@
         <v>300</v>
       </c>
       <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
         <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1638,19 +1641,19 @@
         <v>300</v>
       </c>
       <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
         <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
